--- a/4.BACK/1.MockServices/4.BROKER/2.MicroFocus/DefinicionTramaPlana.xlsx
+++ b/4.BACK/1.MockServices/4.BROKER/2.MicroFocus/DefinicionTramaPlana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\U\PICA\MicroFocus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\PICA\PICA_TouresBalon\4.BACK\1.MockServices\4.BROKER\2.MicroFocus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB1C867-BF89-47FA-823D-F73431F6627B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC2A77-F0BF-4393-86A2-E1EA1D75E760}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{20BE4FE2-393A-464C-8459-F4B1C4F5492E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{20BE4FE2-393A-464C-8459-F4B1C4F5492E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Nombre Campo</t>
   </si>
@@ -53,24 +53,6 @@
     <t>CodCuenta</t>
   </si>
   <si>
-    <t>CodTercero</t>
-  </si>
-  <si>
-    <t>Debito</t>
-  </si>
-  <si>
-    <t>Credito</t>
-  </si>
-  <si>
-    <t>ValorBase</t>
-  </si>
-  <si>
-    <t>Cheque</t>
-  </si>
-  <si>
-    <t>CodCC</t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
@@ -78,6 +60,21 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>NumeroOrden</t>
+  </si>
+  <si>
+    <t>EstadoOrden</t>
+  </si>
+  <si>
+    <t>FechaOrden</t>
+  </si>
+  <si>
+    <t>TipoTx</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,7 +486,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
@@ -501,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
@@ -522,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -531,7 +528,7 @@
         <v>15.2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>"En caso de no tener la longitud necesaria rellenar con ceros a la izquierda."</f>
@@ -543,20 +540,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F6" si="0">"En caso de no tener la longitud necesaria rellenar con ceros a la izquierda."</f>
-        <v>En caso de no tener la longitud necesaria rellenar con ceros a la izquierda.</v>
+        <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
+        <v>En caso de no tener la longitud necesaria rellenar con espacios a la derecha</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,20 +561,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>15.2</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>En caso de no tener la longitud necesaria rellenar con ceros a la izquierda.</v>
+        <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
+        <v>En caso de no tener la longitud necesaria rellenar con espacios a la derecha</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,16 +582,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
@@ -606,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
@@ -623,25 +620,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>"En caso de no tener la longitud necesaria rellenar con espacios a la derecha"</f>
-        <v>En caso de no tener la longitud necesaria rellenar con espacios a la derecha</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,6 +812,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -837,20 +826,38 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C09E77-5AEF-46A6-8C4D-45D31553CCBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C09E77-5AEF-46A6-8C4D-45D31553CCBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f4be09d-56ea-43ab-92f7-210d0a8c416d"/>
+    <ds:schemaRef ds:uri="6a5df8bc-f68c-4953-bdfe-f4e0bf1f9507"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B15B924-7DF2-41B8-BB6F-AFFFC76FF0F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C40289-C81D-44F1-8926-BE8853E11C6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C40289-C81D-44F1-8926-BE8853E11C6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B15B924-7DF2-41B8-BB6F-AFFFC76FF0F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>